--- a/biology/Botanique/Lauraceae/Lauraceae.xlsx
+++ b/biology/Botanique/Lauraceae/Lauraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lauraceae (lauracées) sont une famille de plantes à fleurs de l'ordre des Laurales, une famille de divergence ancienne qui comprend plus de 2 000 espèces et réparties en plus d'une cinquantaine de genres regroupant des arbres et arbustes à feuilles quasi persistantes.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom est issu du genre Laurus qui est le nom latin du l-aurier (en anglais bay tree)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom est issu du genre Laurus qui est le nom latin du l-aurier (en anglais bay tree).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Quelques genres caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les genres appartenant à la famille des lauracées, on peut citer :
 le genre Cassytha qui regroupe des lianes et plantes herbacées à feuilles réduites, qui sont des parasites partielles parfois classées dans la famille des Cassythacées et sont principalement originaires d'Australie, Indonésie, Nouvelle-Guinée et Nouvelle-Zélande, avec également quelques espèces africaines ou pantropicales dans le cas de C. filiformis ;
@@ -581,9 +597,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (13 avr. 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (13 avr. 2010) :
 genre Actinodaphne Nees
 genre Aiouea Aublet
 genre Alseodaphne Nees
@@ -634,7 +652,7 @@
 genre Umbellularia (Nees) Nutt.
 genre Urbanodendron Mez
 genre Williamodendron Kubitzki &amp; H. G. Richt.
-Selon NCBI  (13 avr. 2010)[3] :
+Selon NCBI  (13 avr. 2010) :
 genre Actinodaphne
 genre Adenodaphne
 genre Aiouea
@@ -685,7 +703,7 @@
 genre Umbellularia
 genre Urbanodendron
 genre Williamodendron
-Selon DELTA Angio           (13 avr. 2010)[4] :
+Selon DELTA Angio           (13 avr. 2010) :
 genre Actinodaphne
 genre Adenodaphne
 genre Aiouea
@@ -739,7 +757,7 @@
 genre Umbellularia
 genre Urbanodendron
 genre Williamodendron
-Selon ITIS      (13 avr. 2010)[5] :
+Selon ITIS      (13 avr. 2010) :
 genre Aiouea Aubl.
 genre Aniba Aubl.
 genre Beilschmiedia Nees
